--- a/Similarity_Matching/Similarity_Matching/sentence_similarity.xlsx
+++ b/Similarity_Matching/Similarity_Matching/sentence_similarity.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,253 +458,642 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Who is working in the Computational Materials Science field?</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>['Materials Design Ontology (MDO)', 'Open Materials Database', 'Pyiron YouTube channel', 'MaterialsProject', 'MaterialsMine (MM)', 'Thermo-Calc', 'Avogadro', 'Polymer Genome']</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1131257', 'http://demo.fiz-karlsruhe.de/matwerk/E643412', 'http://demo.fiz-karlsruhe.de/matwerk/E1245283', 'http://demo.fiz-karlsruhe.de/matwerk/E1025597', 'http://demo.fiz-karlsruhe.de/matwerk/E1128252', 'http://demo.fiz-karlsruhe.de/matwerk/E451776', 'http://demo.fiz-karlsruhe.de/matwerk/E472907', 'http://demo.fiz-karlsruhe.de/matwerk/E1066071']</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[0.7672711610794067, 0.7573269009590149, 0.7545511722564697, 0.7534968256950378, 0.7513790726661682, 0.751322865486145, 0.743194580078125, 0.7423355579376221]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Who are the contributors of the data "datasets"?</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>['has creator', 'resource', 'about material', 'has personal information', 'Phonon database at Kyoto university', 'dateCreated', 'UDC', 'semantic resource']</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/hasCreator', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource', 'http://purls.helmholtz-metadaten.de/mwo/aboutMaterial', 'http://purls.helmholtz-metadaten.de/mwo/hasPersonalInformation', 'http://demo.fiz-karlsruhe.de/matwerk/E1074846', 'https://schema.org/dateCreated', 'http://purl.org/dc/elements/1.1/contributor', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource']</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[0.776042640209198, 0.7632700204849243, 0.7532092332839966, 0.7493810653686523, 0.7367544770240784, 0.7359830141067505, 0.7350300550460815, 0.7347659468650818]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Who is working with Researcher "Ebrahim Norouzi" in the same group?</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>['Phonon database at Kyoto university']</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1074846']</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[0.7229446768760681]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Who is the email address of "ParaView"?</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>['dateCreated']</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['https://schema.org/dateCreated']</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[0.7022454142570496]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>What is "Molecular Dynamics" Software? List the programming language, documentation page, repository, and license information.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>['Computational Materials Repository (CMR)', 'PubChem', 'OpenBIS', 'controlled vocabulary', 'controlled vocabulary', 'Cluster Expansion in Atomic Simulation Environment', 'Physical Information File (PIF)', 'Graphical Interface for Materials Simulations']</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1060241', 'http://demo.fiz-karlsruhe.de/matwerk/E1021307', 'http://demo.fiz-karlsruhe.de/matwerk/E551726', 'https://nfdi.fiz-karlsruhe.de/ontology/ControlledVocabulary', 'http://nfdi.fiz-karlsruhe.de/ontology/ControlledVocabulary', 'http://demo.fiz-karlsruhe.de/matwerk/E488579', 'http://demo.fiz-karlsruhe.de/matwerk/E1158482', 'http://demo.fiz-karlsruhe.de/matwerk/E469997']</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[0.8298475742340088, 0.8252118825912476, 0.821381688117981, 0.8069674372673035, 0.8069674372673035, 0.8058927059173584, 0.8053192496299744, 0.8037340044975281]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>What are pre- and post-processing tools for MD simulations?</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>['OVITO basic', 'AML', 'MDTraj', 'Extensible Self-optimizing Phase Equilibria Infrastructure', 'Pizza.py Toolkit', 'Yet another force field', 'Graphical Interface for Materials Simulations', 'freud']</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>['http://demo.fiz-karlsruhe.de/matwerk/E461321', 'http://demo.fiz-karlsruhe.de/matwerk/E473879', 'http://demo.fiz-karlsruhe.de/matwerk/E482672', 'http://demo.fiz-karlsruhe.de/matwerk/E491546', 'http://demo.fiz-karlsruhe.de/matwerk/E481691', 'http://demo.fiz-karlsruhe.de/matwerk/E487592', 'http://demo.fiz-karlsruhe.de/matwerk/E469997', 'http://demo.fiz-karlsruhe.de/matwerk/E483654']</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[0.8328317999839783, 0.8171683549880981, 0.8128784894943237, 0.806013286113739, 0.8016204237937927, 0.8011416792869568, 0.7979493737220764, 0.797276496887207]</t>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[0.8328317403793335, 0.8171682953834534, 0.8128783106803894, 0.8060132265090942, 0.801620364189148, 0.801141619682312, 0.7979493737220764, 0.797276496887207]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>What are some workflow environments for computational materials science?</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>['Simmate', 'matminer', 'Pyiron', 'The Materials Data Facility (MDF)', 'freud', 'pycalphad', 'MGI JSON Schema', 'Polymer Genome']</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E594506', 'http://demo.fiz-karlsruhe.de/matwerk/E497507', 'http://demo.fiz-karlsruhe.de/matwerk/E457491', 'http://demo.fiz-karlsruhe.de/matwerk/E1067531', 'http://demo.fiz-karlsruhe.de/matwerk/E483654', 'http://demo.fiz-karlsruhe.de/matwerk/E492537', 'http://demo.fiz-karlsruhe.de/matwerk/E1161527', 'http://demo.fiz-karlsruhe.de/matwerk/E1066071']</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>[0.7957922220230103, 0.7936322093009949, 0.790785014629364, 0.7818992137908936, 0.7811697721481323, 0.7809754014015198, 0.7783390879631042, 0.7738624215126038]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Where can I find a list of interatomic potentials?</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>['potentials repository', 'Interatomic potentials repository (NIST)', 'Workshop: Workflows for atomistic simulations', 'mendeleev', 'The Science Hub for Atomic-scale Research at Chalmers', 'The ITAP Molecular Dynamics Program', 'pacemaker', 'NGLview']</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/PotentialsRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E1014177', 'http://demo.fiz-karlsruhe.de/matwerk/E1245321', 'http://demo.fiz-karlsruhe.de/matwerk/E499502', 'http://demo.fiz-karlsruhe.de/matwerk/E506516', 'http://demo.fiz-karlsruhe.de/matwerk/E448932', 'http://demo.fiz-karlsruhe.de/matwerk/E511556', 'http://demo.fiz-karlsruhe.de/matwerk/E484637']</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>[0.7681039571762085, 0.7256261706352234, 0.7220953106880188, 0.7209247350692749, 0.7206828594207764, 0.7164483666419983, 0.7156273722648621, 0.7140293717384338]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>What are python libraries used for calculating local atomic structural environment?</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>['Pyscal', 'matminer', 'icet', 'Calphy', 'py4vasp', 'OpenPathSampling', 'EQ2PC', 'Cluster Expansion in Atomic Simulation Environment']</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E413687', 'http://demo.fiz-karlsruhe.de/matwerk/E497507', 'http://demo.fiz-karlsruhe.de/matwerk/E489567', 'http://demo.fiz-karlsruhe.de/matwerk/E411872', 'http://demo.fiz-karlsruhe.de/matwerk/E466131', 'http://demo.fiz-karlsruhe.de/matwerk/E476801', 'http://demo.fiz-karlsruhe.de/matwerk/E414596', 'http://demo.fiz-karlsruhe.de/matwerk/E488579']</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>[0.8711915016174316, 0.8447264432907104, 0.8380201458930969, 0.8359113335609436, 0.8299081325531006, 0.810386061668396, 0.8057491779327393, 0.8029974102973938]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>What are the software for Molecular Dynamics (MD)?</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>['Yet another force field', 'dynasor', 'QuickFF', 'freud', 'matminer', 'Simmate', 'Vienna Ab initio Simulation Package', 'FitSNAP']</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E487592', 'http://demo.fiz-karlsruhe.de/matwerk/E505511', 'http://demo.fiz-karlsruhe.de/matwerk/E485621', 'http://demo.fiz-karlsruhe.de/matwerk/E483654', 'http://demo.fiz-karlsruhe.de/matwerk/E497507', 'http://demo.fiz-karlsruhe.de/matwerk/E594506', 'http://demo.fiz-karlsruhe.de/matwerk/E425582', 'http://demo.fiz-karlsruhe.de/matwerk/E496511']</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>[0.7991178035736084, 0.7940085530281067, 0.7907077074050903, 0.7775577306747437, 0.773648738861084, 0.7698553800582886, 0.7695932984352112, 0.7644413709640503]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>What are the ontologies in nanomaterials domain?</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>['MaterialsMine (MM)', 'Materials Design Ontology (MDO)', 'Materials And Molecules Basic Ontology (MAMBO)', 'eNanoMapper ontology', 'Knowledge Graphs (openHPI Massive Open Online Course (MOOC))', 'Essential Source of Schemas and Examples (ESSE)', 'SimPhoNy', 'Computational Material Sample Ontology']</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1128252', 'http://demo.fiz-karlsruhe.de/matwerk/E1131257', 'http://demo.fiz-karlsruhe.de/matwerk/E1143317', 'http://demo.fiz-karlsruhe.de/matwerk/E1137279', 'http://demo.fiz-karlsruhe.de/matwerk/E1245261', 'http://demo.fiz-karlsruhe.de/matwerk/E1152404', 'http://demo.fiz-karlsruhe.de/matwerk/E514592', 'http://demo.fiz-karlsruhe.de/matwerk/E1247323']</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>[0.8046297430992126, 0.803712785243988, 0.7940781712532043, 0.7811478972434998, 0.7700950503349304, 0.7690978050231934, 0.7644919753074646, 0.7625333070755005]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>What are the data portals for materials science ontologies?</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>['MatPortal', 'Materials Design Ontology (MDO)', 'MaterialsMine (MM)', 'Essential Source of Schemas and Examples (ESSE)', 'materials database', 'MGI JSON Schema', 'Materials And Molecules Basic Ontology (MAMBO)', 'Simmate']</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1029896', 'http://demo.fiz-karlsruhe.de/matwerk/E1131257', 'http://demo.fiz-karlsruhe.de/matwerk/E1128252', 'http://demo.fiz-karlsruhe.de/matwerk/E1152404', 'http://purls.helmholtz-metadaten.de/mwo/MaterialsDatabase', 'http://demo.fiz-karlsruhe.de/matwerk/E1161527', 'http://demo.fiz-karlsruhe.de/matwerk/E1143317', 'http://demo.fiz-karlsruhe.de/matwerk/E594506']</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>[0.7930157780647278, 0.7827779054641724, 0.7778983116149902, 0.7757351994514465, 0.7735152840614319, 0.7653436660766602, 0.7643849849700928, 0.7629305124282837]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>What are the educational resources for Ontology?</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>['glossary', 'glossary', 'MatPortal']</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>['http://nfdi.fiz-karlsruhe.de/ontology/Glossary', 'https://nfdi.fiz-karlsruhe.de/ontology/Glossary', 'http://demo.fiz-karlsruhe.de/matwerk/E1029896']</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>[0.7161356806755066, 0.7161356806755066, 0.7103961110115051]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>What is the API of Materials Project?</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>['Python Materials Genomics']</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E478754']</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>[0.7113269567489624]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Which simulation software have a python API?</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>['OpenPathSampling', 'py4vasp', 'CompositionSpace', 'Pyscal', 'programming language', 'pycp2k', 'matminer', 'icet']</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E476801', 'http://demo.fiz-karlsruhe.de/matwerk/E466131', 'http://demo.fiz-karlsruhe.de/matwerk/E1246567', 'http://demo.fiz-karlsruhe.de/matwerk/E413687', 'http://nfdi.fiz-karlsruhe.de/ontology/ProgrammingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E474852', 'http://demo.fiz-karlsruhe.de/matwerk/E497507', 'http://demo.fiz-karlsruhe.de/matwerk/E489567']</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>[0.7834775447845459, 0.7825597524642944, 0.7701759338378906, 0.7567362189292908, 0.7514336109161377, 0.7503904104232788, 0.7481774091720581, 0.7478575706481934]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>What is the documentation of the "MatDB Online"?</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>['NOMAD Metainfo', 'Materials Platform for Data Science', 'Materials Data Repository', 'Phonon database at Kyoto university', 'Metadata schemes for materials science data', 'Workshop: Simulation workflows in materials modelling', 'Electronic Structure Common Data Format (ESCDF)', 'has repository']</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1156961', 'http://demo.fiz-karlsruhe.de/matwerk/E1035642', 'http://demo.fiz-karlsruhe.de/matwerk/E1042847', 'http://demo.fiz-karlsruhe.de/matwerk/E1074846', 'http://demo.fiz-karlsruhe.de/matwerk/E1123752', 'http://demo.fiz-karlsruhe.de/matwerk/E1245333', 'http://demo.fiz-karlsruhe.de/matwerk/E1153922', 'http://purls.helmholtz-metadaten.de/mwo/hasRepository']</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>[0.749140739440918, 0.741711437702179, 0.728651225566864, 0.7238051891326904, 0.7219794988632202, 0.7191509008407593, 0.7156352400779724, 0.7090325951576233]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>What are the types of software licenses?</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>['has format']</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/hasFormat']</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>[0.7056126594543457]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>What are the software used to produce the data in the Materials Cloud repository?</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>['Materials Data Repository', 'has repository', 'OpenBIS', 'Khazana', 'Computational Materials Repository (CMR)', 'The MatWerk ontology', 'NOMAD Metainfo', 'Electronic Structure Common Data Format (ESCDF)']</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1042847', 'http://purls.helmholtz-metadaten.de/mwo/hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E551726', 'http://demo.fiz-karlsruhe.de/matwerk/E1064612', 'http://demo.fiz-karlsruhe.de/matwerk/E1060241', 'http://purls.helmholtz-metadaten.de/mwo/', 'http://demo.fiz-karlsruhe.de/matwerk/E1156961', 'http://demo.fiz-karlsruhe.de/matwerk/E1153922']</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>[0.7893213629722595, 0.7822422981262207, 0.7816780209541321, 0.7805479168891907, 0.769416868686676, 0.7686192989349365, 0.767957866191864, 0.7674663066864014]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>What are datasets produced by the BAM organization?</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>['NOMAD Metainfo', 'has creator', 'about material', 'provided resource', 'Electronic Structure Common Data Format (ESCDF)', 'The Materials Data Facility (MDF)', 'Computational Materials Repository (CMR)', 'data portal']</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1156961', 'http://purls.helmholtz-metadaten.de/mwo/hasCreator', 'http://purls.helmholtz-metadaten.de/mwo/aboutMaterial', 'http://nfdi.fiz-karlsruhe.de/ontology/ProvidedResource', 'http://demo.fiz-karlsruhe.de/matwerk/E1153922', 'http://demo.fiz-karlsruhe.de/matwerk/E1067531', 'http://demo.fiz-karlsruhe.de/matwerk/E1060241', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal']</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>[0.7455052733421326, 0.7418684363365173, 0.7250615358352661, 0.7229470014572144, 0.722618818283081, 0.715350329875946, 0.7139847874641418, 0.7137879133224487]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>What are some available datasets of mechanical properties of steels?</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>['Elastic Constant Demo Data', 'MatDat', 'Polymer Database (PoLyInfo)', 'materials database', 'Elastic Constant Demo', 'Diffusion Database (Kakusan)', 'Inorganic Material Database (AtomWork)', 'Atomic Simulation Recipes']</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1247418', 'http://demo.fiz-karlsruhe.de/matwerk/E1041404', 'http://demo.fiz-karlsruhe.de/matwerk/E1045736', 'http://purls.helmholtz-metadaten.de/mwo/MaterialsDatabase', 'http://demo.fiz-karlsruhe.de/matwerk/E1246648', 'http://demo.fiz-karlsruhe.de/matwerk/E1050077', 'http://demo.fiz-karlsruhe.de/matwerk/E1047182', 'http://demo.fiz-karlsruhe.de/matwerk/E552776']</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>[0.836538553237915, 0.8124992847442627, 0.7976945638656616, 0.7934147715568542, 0.7898780703544617, 0.7872816324234009, 0.7790257334709167, 0.7780264616012573]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>What are datasets related to "Transmission electron microscopy"?</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>['materials database', 'Atomic Simulation Recipes', 'pySTEM', 'Soprano', 'Material Properties Open Database (MPOD)', 'pyXIT', 'Thermo-Calc', 'Computational Material Sample Ontology']</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/MaterialsDatabase', 'http://demo.fiz-karlsruhe.de/matwerk/E552776', 'http://demo.fiz-karlsruhe.de/matwerk/E522732', 'http://demo.fiz-karlsruhe.de/matwerk/E468062', 'http://demo.fiz-karlsruhe.de/matwerk/E1068992', 'http://demo.fiz-karlsruhe.de/matwerk/E420987', 'http://demo.fiz-karlsruhe.de/matwerk/E451776', 'http://demo.fiz-karlsruhe.de/matwerk/E1247323']</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>[0.7953129410743713, 0.7883117198944092, 0.7878686189651489, 0.7876636981964111, 0.7876405119895935, 0.7821601033210754, 0.7815392017364502, 0.7802723050117493]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>What is the license of the dataset "Elastic Constant Demo Data"?</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>['Metadata schemes for materials science data', 'Phonon database at Kyoto university', 'semantic expressivity', 'has repository', 'Fiji', 'Electronic Structure Common Data Format (ESCDF)', 'UDC', 'TEMMETA']</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1123752', 'http://demo.fiz-karlsruhe.de/matwerk/E1074846', 'http://nfdi.fiz-karlsruhe.de/ontology/SemanticExpressivity', 'http://purls.helmholtz-metadaten.de/mwo/hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E422822', 'http://demo.fiz-karlsruhe.de/matwerk/E1153922', 'http://purl.org/dc/elements/1.1/contributor', 'http://demo.fiz-karlsruhe.de/matwerk/E500501']</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>[0.7731269598007202, 0.766732931137085, 0.7635065913200378, 0.7619881629943848, 0.759754478931427, 0.7517324090003967, 0.750860869884491, 0.7507756948471069]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>What is the repository for "BAM reference data"?</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>['has repository', 'about material', 'UDC', 'provided resource', 'NOMAD Metainfo', 'object type', 'has format', 'has creator']</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/hasRepository', 'http://purls.helmholtz-metadaten.de/mwo/aboutMaterial', 'http://purl.org/dc/elements/1.1/contributor', 'http://nfdi.fiz-karlsruhe.de/ontology/ProvidedResource', 'http://demo.fiz-karlsruhe.de/matwerk/E1156961', 'http://nfdi.fiz-karlsruhe.de/ontology/ObjectType', 'http://purls.helmholtz-metadaten.de/mwo/hasFormat', 'http://purls.helmholtz-metadaten.de/mwo/hasCreator']</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>[0.7522176504135132, 0.7383511066436768, 0.7357584834098816, 0.7343433499336243, 0.7314974069595337, 0.7301638126373291, 0.7290972471237183, 0.7288016676902771]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>What are the different data formats in the "BAM reference data"?</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>['UDC', 'File Format', 'Computational Materials Repository (CMR)', 'Electronic Structure Common Data Format (ESCDF)', 'semantic expressivity', 'has format', 'NOMAD Metainfo', 'about material']</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>['http://purl.org/dc/elements/1.1/contributor', 'http://purl.org/dc/terms/FileFormat', 'http://demo.fiz-karlsruhe.de/matwerk/E1060241', 'http://demo.fiz-karlsruhe.de/matwerk/E1153922', 'http://nfdi.fiz-karlsruhe.de/ontology/SemanticExpressivity', 'http://purls.helmholtz-metadaten.de/mwo/hasFormat', 'http://demo.fiz-karlsruhe.de/matwerk/E1156961', 'http://purls.helmholtz-metadaten.de/mwo/aboutMaterial']</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>[0.7897754311561584, 0.7834638953208923, 0.7801300883293152, 0.7796722054481506, 0.7745339274406433, 0.7711977958679199, 0.7697939872741699, 0.7670783996582031]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>What is the software version of "pacemaker"?</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>['eLabFTW', 'Qe-tools', 'Phonon database at Kyoto university', 'Pyrho', 'Graphical Expression of Materials Data (GEMD)', 'software interface']</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E527852', 'http://demo.fiz-karlsruhe.de/matwerk/E479732', 'http://demo.fiz-karlsruhe.de/matwerk/E1074846', 'http://demo.fiz-karlsruhe.de/matwerk/E510546', 'http://demo.fiz-karlsruhe.de/matwerk/E1155441', 'http://www.ebi.ac.uk/swo/SWO_9000050']</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>[0.7181330323219299, 0.7139264345169067, 0.7111146450042725, 0.7076436281204224, 0.7032119631767273, 0.7016438841819763]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>What is the field of research "BAM reference data"?</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>['Phonon database at Kyoto university', 'has topic', 'Materials Platform for Data Science', 'Metadata schemes for materials science data', 'Diffusion Database (Kakusan)', 'resource', 'Workshop: Simulation workflows in materials modelling', 'has expertise in']</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1074846', 'http://purls.helmholtz-metadaten.de/mwo/hasTopic', 'http://demo.fiz-karlsruhe.de/matwerk/E1035642', 'http://demo.fiz-karlsruhe.de/matwerk/E1123752', 'http://demo.fiz-karlsruhe.de/matwerk/E1050077', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource', 'http://demo.fiz-karlsruhe.de/matwerk/E1245333', 'http://purls.helmholtz-metadaten.de/mwo/hasExpertiseIn']</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>[0.7492272257804871, 0.7417762279510498, 0.7333654761314392, 0.7314412593841553, 0.729027271270752, 0.7264857888221741, 0.7250858545303345, 0.7222039103507996]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>What is the description of the "BAM reference data"?</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>['instrument model', 'about material', 'UDC', 'has format', 'glossary', 'glossary', 'Electronic Structure Common Data Format (ESCDF)', 'Computational Materials Repository (CMR)']</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'http://purls.helmholtz-metadaten.de/mwo/aboutMaterial', 'http://purl.org/dc/elements/1.1/contributor', 'http://purls.helmholtz-metadaten.de/mwo/hasFormat', 'http://nfdi.fiz-karlsruhe.de/ontology/Glossary', 'https://nfdi.fiz-karlsruhe.de/ontology/Glossary', 'http://demo.fiz-karlsruhe.de/matwerk/E1153922', 'http://demo.fiz-karlsruhe.de/matwerk/E1060241']</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>[0.7631836533546448, 0.7620682120323181, 0.7579913139343262, 0.7569304704666138, 0.751581072807312, 0.751581072807312, 0.7482319474220276, 0.7477960586547852]</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Who are the creators of the "BAM reference data"?</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>['Electronic Structure Common Data Format (ESCDF)', 'has creator', 'NOMAD Metainfo', 'Phonon database at Kyoto university', 'dateCreated', 'The MatWerk ontology', 'Carolina Materials Database', 'Atomistictools']</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1153922', 'http://purls.helmholtz-metadaten.de/mwo/hasCreator', 'http://demo.fiz-karlsruhe.de/matwerk/E1156961', 'http://demo.fiz-karlsruhe.de/matwerk/E1074846', 'https://schema.org/dateCreated', 'http://purls.helmholtz-metadaten.de/mwo/', 'http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'http://demo.fiz-karlsruhe.de/matwerk/E1031331']</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>[0.7332724928855896, 0.7325448393821716, 0.7286884188652039, 0.7263903617858887, 0.7200872898101807, 0.7180271148681641, 0.7168002128601074, 0.7137792706489563]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>What are the datasets published by "BAM"?</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>['NOMAD Metainfo', 'about material', 'has creator', 'Electronic Structure Common Data Format (ESCDF)', 'Phonon database at Kyoto university', 'Computational Materials Repository (CMR)', 'Materials Data Repository', 'OpenBIS']</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1156961', 'http://purls.helmholtz-metadaten.de/mwo/aboutMaterial', 'http://purls.helmholtz-metadaten.de/mwo/hasCreator', 'http://demo.fiz-karlsruhe.de/matwerk/E1153922', 'http://demo.fiz-karlsruhe.de/matwerk/E1074846', 'http://demo.fiz-karlsruhe.de/matwerk/E1060241', 'http://demo.fiz-karlsruhe.de/matwerk/E1042847', 'http://demo.fiz-karlsruhe.de/matwerk/E551726']</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>[0.7672039270401001, 0.7433327436447144, 0.7400168776512146, 0.7395100593566895, 0.7333850860595703, 0.7311202883720398, 0.7302395105361938, 0.7301573753356934]</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4093E08A2E8D84C9AA963E02FD99654" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="84c502d4503dea49fce9d134f7dcc9af">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c09d107b-18dc-489c-bc6f-5ed48cc8c44a" xmlns:ns3="e2225dd1-523d-4404-be3e-841da2544242" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b8dc0315bcb7427c92a75c96c81d9d2" ns2:_="" ns3:_="">
-    <xsd:import namespace="c09d107b-18dc-489c-bc6f-5ed48cc8c44a"/>
-    <xsd:import namespace="e2225dd1-523d-4404-be3e-841da2544242"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c09d107b-18dc-489c-bc6f-5ed48cc8c44a" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="11" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="89a75c37-6363-466b-83d7-1b9f4a918caf" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e2225dd1-523d-4404-be3e-841da2544242" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{3a3b5da6-65bc-40f7-ae0d-c52f7365e2ec}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="e2225dd1-523d-4404-be3e-841da2544242">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c09d107b-18dc-489c-bc6f-5ed48cc8c44a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e2225dd1-523d-4404-be3e-841da2544242" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B64CE1D-07B0-4A6C-8CE1-69793D3552AE}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7807D227-5C26-411B-820A-9AD4BD96AAC8}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DAEC0B6-6823-4353-952C-7F58A3DF7354}"/>
 </file>